--- a/data/input/absenteeism_data_5.xlsx
+++ b/data/input/absenteeism_data_5.xlsx
@@ -476,161 +476,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29428</v>
+        <v>83204</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Elisa Peixoto</t>
+          <t>Sophie Ramos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45090</v>
+        <v>45103</v>
       </c>
       <c r="G2" t="n">
-        <v>2887.43</v>
+        <v>6514.11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>61670</v>
+        <v>21351</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luana Fernandes</t>
+          <t>Milena Peixoto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45098</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>3370.74</v>
+        <v>7448.63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91197</v>
+        <v>83721</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dra. Catarina da Costa</t>
+          <t>Bryan da Luz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45091</v>
+        <v>45104</v>
       </c>
       <c r="G4" t="n">
-        <v>9973.49</v>
+        <v>11826.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11429</v>
+        <v>31326</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>João Vitor Monteiro</t>
+          <t>Luiz Otávio Oliveira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45091</v>
+        <v>45085</v>
       </c>
       <c r="G5" t="n">
-        <v>10296.3</v>
+        <v>6194.52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>157</v>
+        <v>17791</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bernardo Fogaça</t>
+          <t>Ana Lívia Duarte</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45094</v>
+        <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>8645.09</v>
+        <v>8074.18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>42662</v>
+        <v>35697</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rafaela da Luz</t>
+          <t>Ana Beatriz Correia</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -642,53 +642,53 @@
         <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45087</v>
+        <v>45101</v>
       </c>
       <c r="G7" t="n">
-        <v>4764.27</v>
+        <v>10682.87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2867</v>
+        <v>13914</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luiz Fernando Moura</t>
+          <t>João Pedro Lopes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45106</v>
+        <v>45081</v>
       </c>
       <c r="G8" t="n">
-        <v>5784.86</v>
+        <v>5110.38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96353</v>
+        <v>5989</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Natália Gonçalves</t>
+          <t>Ryan Monteiro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,27 +697,27 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45102</v>
+        <v>45093</v>
       </c>
       <c r="G9" t="n">
-        <v>4412.33</v>
+        <v>7668.29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>42206</v>
+        <v>79990</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>João Miguel Costa</t>
+          <t>Paulo Fernandes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45078</v>
+        <v>45096</v>
       </c>
       <c r="G10" t="n">
-        <v>7767.46</v>
+        <v>7523.38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8330</v>
+        <v>96465</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Davi Lucca Peixoto</t>
+          <t>Kaique da Cruz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45084</v>
       </c>
       <c r="G11" t="n">
-        <v>5322.19</v>
+        <v>11749.02</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_5.xlsx
+++ b/data/input/absenteeism_data_5.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>83204</v>
+        <v>22771</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sophie Ramos</t>
+          <t>Levi Gonçalves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45103</v>
+        <v>45091</v>
       </c>
       <c r="G2" t="n">
-        <v>6514.11</v>
+        <v>3623.57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21351</v>
+        <v>68343</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Milena Peixoto</t>
+          <t>Alexia da Mota</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,53 +526,53 @@
         <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45084</v>
+        <v>45096</v>
       </c>
       <c r="G3" t="n">
-        <v>7448.63</v>
+        <v>5757.77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>83721</v>
+        <v>47017</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bryan da Luz</t>
+          <t>Ana Laura Oliveira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45104</v>
+        <v>45090</v>
       </c>
       <c r="G4" t="n">
-        <v>11826.95</v>
+        <v>3504.53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>31326</v>
+        <v>53837</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luiz Otávio Oliveira</t>
+          <t>Gabriela Silveira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,85 +581,85 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45085</v>
+        <v>45099</v>
       </c>
       <c r="G5" t="n">
-        <v>6194.52</v>
+        <v>11127.51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17791</v>
+        <v>17907</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Lívia Duarte</t>
+          <t>Sr. Miguel Cardoso</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45104</v>
+        <v>45093</v>
       </c>
       <c r="G6" t="n">
-        <v>8074.18</v>
+        <v>9629.84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>35697</v>
+        <v>78512</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ana Beatriz Correia</t>
+          <t>Ana Júlia Moreira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45101</v>
+        <v>45078</v>
       </c>
       <c r="G7" t="n">
-        <v>10682.87</v>
+        <v>4140.58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13914</v>
+        <v>23195</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>João Pedro Lopes</t>
+          <t>Julia Ribeiro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45081</v>
+        <v>45101</v>
       </c>
       <c r="G8" t="n">
-        <v>5110.38</v>
+        <v>5097.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5989</v>
+        <v>88192</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ryan Monteiro</t>
+          <t>Maria Eduarda Araújo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45093</v>
+        <v>45087</v>
       </c>
       <c r="G9" t="n">
-        <v>7668.29</v>
+        <v>9461.309999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>79990</v>
+        <v>87641</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Paulo Fernandes</t>
+          <t>Sra. Maria Julia Farias</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45096</v>
+        <v>45078</v>
       </c>
       <c r="G10" t="n">
-        <v>7523.38</v>
+        <v>2677.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96465</v>
+        <v>77434</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kaique da Cruz</t>
+          <t>Laís Aragão</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45084</v>
+        <v>45082</v>
       </c>
       <c r="G11" t="n">
-        <v>11749.02</v>
+        <v>7504.99</v>
       </c>
     </row>
   </sheetData>
